--- a/src/test/resources/testdata/ui/pagecases.xlsx
+++ b/src/test/resources/testdata/ui/pagecases.xlsx
@@ -27,30 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>查询条件</t>
   </si>
   <si>
-    <t>responseExtracts</t>
+    <t>断言</t>
   </si>
   <si>
     <t>{
     "合同名称": "测试",
     "合同编号": "2020260224000036113"
 }</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>{
-    "合同名称": "测试",
-    "合同编号": "2020260128000016442"
-}</t>
-  </si>
-  <si>
-    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -993,16 +981,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.1592920353982" customWidth="1"/>
-    <col min="2" max="2" width="20.6548672566372" customWidth="1"/>
+    <col min="2" max="2" width="37.3716814159292" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1017,16 +1005,8 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="54" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
